--- a/codeV3/exceptions.xlsx
+++ b/codeV3/exceptions.xlsx
@@ -9,114 +9,159 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Jy1C7FJIBCd8A2o+o3Alz4LZ4fklDKap1uRUZ4cRIEg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BV+VFrELLHN+NBSJ+lF3dX8kCLy5vR2s1tclHAbzurs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+  <si>
+    <t>replacement</t>
+  </si>
+  <si>
+    <t>replace</t>
   </si>
   <si>
     <t>California Institute of Technology</t>
   </si>
   <si>
-    <t>Colorado State University-Fort Collins</t>
-  </si>
-  <si>
-    <t>CUNY Graduate School and University Center</t>
-  </si>
-  <si>
-    <t>Georgia Institute of Technology-Main Campus</t>
-  </si>
-  <si>
-    <t>Indiana University-Bloomington</t>
-  </si>
-  <si>
-    <t>Indiana University-Purdue University-Indianapolis</t>
-  </si>
-  <si>
-    <t>Kent State University at Kent</t>
-  </si>
-  <si>
-    <t>New Mexico State University-Main Campus</t>
-  </si>
-  <si>
-    <t>North Dakota State University-Main Campus</t>
+    <t>Colorado State University</t>
+  </si>
+  <si>
+    <t>CUNY</t>
+  </si>
+  <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>New Mexico State University</t>
+  </si>
+  <si>
+    <t>North Dakota State University</t>
+  </si>
+  <si>
+    <t>OSU</t>
   </si>
   <si>
     <t>Ohio State University-Main Campus</t>
   </si>
   <si>
-    <t>Ohio University-Main Campus</t>
-  </si>
-  <si>
-    <t>Purdue University-Main Campus</t>
-  </si>
-  <si>
-    <t>Rutgers University-New Brunswick</t>
-  </si>
-  <si>
-    <t>Southern Illinois University-Carbondale</t>
-  </si>
-  <si>
-    <t>Texas A &amp; M University-College Station</t>
-  </si>
-  <si>
-    <t>The University of Tennessee Health Science Center</t>
-  </si>
-  <si>
-    <t>The University of Tennessee-Knoxville</t>
-  </si>
-  <si>
-    <t>The University of Texas Health Science Center at San Antonio</t>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Southern Illinois University</t>
+  </si>
+  <si>
+    <t>TX A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University</t>
+  </si>
+  <si>
+    <t>The University of Tennessee</t>
+  </si>
+  <si>
+    <t>U TX Austin</t>
+  </si>
+  <si>
+    <t>The University of Texas</t>
+  </si>
+  <si>
+    <t>UCB</t>
   </si>
   <si>
     <t>University of California-Berkeley</t>
   </si>
   <si>
+    <t>UCD</t>
+  </si>
+  <si>
     <t>University of California-Davis</t>
   </si>
   <si>
+    <t>UCI</t>
+  </si>
+  <si>
     <t>University of California-Irvine</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
     <t>University of California-Los Angeles</t>
   </si>
   <si>
+    <t>UCM</t>
+  </si>
+  <si>
     <t>University of California-Merced</t>
   </si>
   <si>
+    <t>UCR</t>
+  </si>
+  <si>
     <t>University of California-Riverside</t>
   </si>
   <si>
+    <t>UCSD</t>
+  </si>
+  <si>
     <t>University of California-San Diego</t>
   </si>
   <si>
+    <t>UCSF</t>
+  </si>
+  <si>
     <t>University of California-San Francisco</t>
   </si>
   <si>
     <t>University of California-Santa Barbara</t>
   </si>
   <si>
+    <t>UCSC</t>
+  </si>
+  <si>
     <t>University of California-Santa Cruz</t>
   </si>
   <si>
-    <t>University of Colorado Denver/Anschutz Medical Campus</t>
+    <t>University of Colorado Denver</t>
+  </si>
+  <si>
+    <t>UIUC</t>
   </si>
   <si>
     <t>University of Illinois Urbana-Champaign</t>
   </si>
   <si>
+    <t>UMBC</t>
+  </si>
+  <si>
     <t>University of Maryland-Baltimore County</t>
   </si>
   <si>
+    <t>UMCP</t>
+  </si>
+  <si>
     <t>University of Maryland-College Park</t>
   </si>
   <si>
+    <t>UMass</t>
+  </si>
+  <si>
     <t>University of Massachusetts-Amherst</t>
   </si>
   <si>
@@ -126,55 +171,79 @@
     <t>University of Massachusetts-Lowell</t>
   </si>
   <si>
-    <t>University of Michigan-Ann Arbor</t>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>U MN Twin Cities</t>
   </si>
   <si>
     <t>University of Minnesota-Twin Cities</t>
   </si>
   <si>
+    <t>U MO</t>
+  </si>
+  <si>
     <t>University of Missouri-Columbia</t>
   </si>
   <si>
-    <t>University of Missouri-Kansas City</t>
+    <t>U NE Omaha</t>
   </si>
   <si>
     <t>University of Nebraska Medical Center</t>
   </si>
   <si>
+    <t>U NE Lincoln</t>
+  </si>
+  <si>
     <t>University of Nebraska-Lincoln</t>
   </si>
   <si>
+    <t>U NV</t>
+  </si>
+  <si>
     <t>University of Nevada-Las Vegas</t>
   </si>
   <si>
     <t>University of Nevada-Reno</t>
   </si>
   <si>
-    <t>University of New Hampshire-Main Campus</t>
-  </si>
-  <si>
-    <t>University of New Mexico-Main Campus</t>
-  </si>
-  <si>
-    <t>University of Oklahoma-Norman Campus</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh-Pittsburgh Campus</t>
-  </si>
-  <si>
-    <t>University of South Carolina-Columbia</t>
-  </si>
-  <si>
-    <t>University of Virginia-Main Campus</t>
-  </si>
-  <si>
-    <t>University of Washington-Seattle Campus</t>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>University of New Mexico</t>
+  </si>
+  <si>
+    <t>U OK Norman</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>U WI Madison</t>
   </si>
   <si>
     <t>University of Wisconsin-Madison</t>
   </si>
   <si>
+    <t>U WI Milwaukee</t>
+  </si>
+  <si>
     <t>University of Wisconsin-Milwaukee</t>
+  </si>
+  <si>
+    <t>Cornell U</t>
   </si>
   <si>
     <t>Weill Medical College of Cornell University</t>
@@ -184,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -201,6 +270,10 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,6 +297,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -440,279 +519,366 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col customWidth="1" min="1" max="1" width="50.89"/>
+    <col customWidth="1" min="2" max="26" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
+      <c r="A51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="A52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
@@ -1658,8 +1824,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/codeV3/exceptions.xlsx
+++ b/codeV3/exceptions.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="BV+VFrELLHN+NBSJ+lF3dX8kCLy5vR2s1tclHAbzurs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+fcNRvIxeHOgamfcs+ySIO/cVVEFRnvhJR80/ooA2hI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="219">
   <si>
     <t>replacement</t>
   </si>
@@ -30,230 +30,656 @@
     <t>Colorado State University</t>
   </si>
   <si>
+    <t>Georgia Institute of Technology</t>
+  </si>
+  <si>
+    <t>Indiana University</t>
+  </si>
+  <si>
+    <t>Kent State University</t>
+  </si>
+  <si>
+    <t>New Mexico State University</t>
+  </si>
+  <si>
+    <t>North Dakota State University</t>
+  </si>
+  <si>
+    <t>OSU</t>
+  </si>
+  <si>
+    <t>Ohio State University-Main Campus</t>
+  </si>
+  <si>
+    <t>Ohio University</t>
+  </si>
+  <si>
+    <t>Purdue University</t>
+  </si>
+  <si>
+    <t>Rutgers University</t>
+  </si>
+  <si>
+    <t>Southern Illinois University</t>
+  </si>
+  <si>
+    <t>TX A&amp;M</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University</t>
+  </si>
+  <si>
+    <t>The University of Tennessee</t>
+  </si>
+  <si>
+    <t>U TX Austin</t>
+  </si>
+  <si>
+    <t>The University of Texas</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>University of California-Berkeley</t>
+  </si>
+  <si>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>University of California-Davis</t>
+  </si>
+  <si>
+    <t>UCI</t>
+  </si>
+  <si>
+    <t>University of California-Irvine</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>University of California-Los Angeles</t>
+  </si>
+  <si>
+    <t>UCM</t>
+  </si>
+  <si>
+    <t>University of California-Merced</t>
+  </si>
+  <si>
+    <t>UCR</t>
+  </si>
+  <si>
+    <t>University of California-Riverside</t>
+  </si>
+  <si>
+    <t>UCSD</t>
+  </si>
+  <si>
+    <t>University of California-San Diego</t>
+  </si>
+  <si>
+    <t>UCSF</t>
+  </si>
+  <si>
+    <t>University of California-San Francisco</t>
+  </si>
+  <si>
+    <t>University of California-Santa Barbara</t>
+  </si>
+  <si>
+    <t>UCSC</t>
+  </si>
+  <si>
+    <t>University of California-Santa Cruz</t>
+  </si>
+  <si>
+    <t>University of Colorado Denver</t>
+  </si>
+  <si>
+    <t>UIUC</t>
+  </si>
+  <si>
+    <t>University of Illinois Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>UMBC</t>
+  </si>
+  <si>
+    <t>University of Maryland-Baltimore County</t>
+  </si>
+  <si>
+    <t>UMCP</t>
+  </si>
+  <si>
+    <t>University of Maryland-College Park</t>
+  </si>
+  <si>
+    <t>UMass</t>
+  </si>
+  <si>
+    <t>University of Massachusetts-Amherst</t>
+  </si>
+  <si>
+    <t>University of Massachusetts-Boston</t>
+  </si>
+  <si>
+    <t>University of Massachusetts-Lowell</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>U MN Twin Cities</t>
+  </si>
+  <si>
+    <t>University of Minnesota-Twin Cities</t>
+  </si>
+  <si>
+    <t>U MO</t>
+  </si>
+  <si>
+    <t>University of Missouri-Columbia</t>
+  </si>
+  <si>
+    <t>U NE Omaha</t>
+  </si>
+  <si>
+    <t>University of Nebraska Medical Center</t>
+  </si>
+  <si>
+    <t>U NE Lincoln</t>
+  </si>
+  <si>
+    <t>University of Nebraska-Lincoln</t>
+  </si>
+  <si>
+    <t>U NV</t>
+  </si>
+  <si>
+    <t>University of Nevada-Las Vegas</t>
+  </si>
+  <si>
+    <t>University of Nevada-Reno</t>
+  </si>
+  <si>
+    <t>University of New Hampshire</t>
+  </si>
+  <si>
+    <t>University of New Mexico</t>
+  </si>
+  <si>
+    <t>U OK Norman</t>
+  </si>
+  <si>
+    <t>University of Oklahoma</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh</t>
+  </si>
+  <si>
+    <t>University of South Carolina</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>University of Washington</t>
+  </si>
+  <si>
+    <t>U WI Madison</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Madison</t>
+  </si>
+  <si>
+    <t>U WI Milwaukee</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Milwaukee</t>
+  </si>
+  <si>
+    <t>Cornell U</t>
+  </si>
+  <si>
+    <t>Weill Medical College of Cornell University</t>
+  </si>
+  <si>
+    <t>University of Oklahoma-Health Sciences Center</t>
+  </si>
+  <si>
+    <t>USAF</t>
+  </si>
+  <si>
+    <t>Air Force Institute of Technology-Graduate School of Engineering &amp; Management</t>
+  </si>
+  <si>
     <t>CUNY</t>
   </si>
   <si>
-    <t>Georgia Institute of Technology</t>
-  </si>
-  <si>
-    <t>Indiana University</t>
-  </si>
-  <si>
-    <t>Kent State University</t>
-  </si>
-  <si>
-    <t>New Mexico State University</t>
-  </si>
-  <si>
-    <t>North Dakota State University</t>
-  </si>
-  <si>
-    <t>OSU</t>
-  </si>
-  <si>
-    <t>Ohio State University-Main Campus</t>
-  </si>
-  <si>
-    <t>Ohio University</t>
-  </si>
-  <si>
-    <t>Purdue University</t>
-  </si>
-  <si>
-    <t>Rutgers University</t>
-  </si>
-  <si>
-    <t>Southern Illinois University</t>
-  </si>
-  <si>
-    <t>TX A&amp;M</t>
-  </si>
-  <si>
-    <t>Texas A &amp; M University</t>
-  </si>
-  <si>
-    <t>The University of Tennessee</t>
-  </si>
-  <si>
-    <t>U TX Austin</t>
-  </si>
-  <si>
-    <t>The University of Texas</t>
-  </si>
-  <si>
-    <t>UCB</t>
-  </si>
-  <si>
-    <t>University of California-Berkeley</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>University of California-Davis</t>
-  </si>
-  <si>
-    <t>UCI</t>
-  </si>
-  <si>
-    <t>University of California-Irvine</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>University of California-Los Angeles</t>
-  </si>
-  <si>
-    <t>UCM</t>
-  </si>
-  <si>
-    <t>University of California-Merced</t>
-  </si>
-  <si>
-    <t>UCR</t>
-  </si>
-  <si>
-    <t>University of California-Riverside</t>
-  </si>
-  <si>
-    <t>UCSD</t>
-  </si>
-  <si>
-    <t>University of California-San Diego</t>
-  </si>
-  <si>
-    <t>UCSF</t>
-  </si>
-  <si>
-    <t>University of California-San Francisco</t>
-  </si>
-  <si>
-    <t>University of California-Santa Barbara</t>
-  </si>
-  <si>
-    <t>UCSC</t>
-  </si>
-  <si>
-    <t>University of California-Santa Cruz</t>
-  </si>
-  <si>
-    <t>University of Colorado Denver</t>
-  </si>
-  <si>
-    <t>UIUC</t>
-  </si>
-  <si>
-    <t>University of Illinois Urbana-Champaign</t>
-  </si>
-  <si>
-    <t>UMBC</t>
-  </si>
-  <si>
-    <t>University of Maryland-Baltimore County</t>
-  </si>
-  <si>
-    <t>UMCP</t>
-  </si>
-  <si>
-    <t>University of Maryland-College Park</t>
-  </si>
-  <si>
-    <t>UMass</t>
-  </si>
-  <si>
-    <t>University of Massachusetts-Amherst</t>
-  </si>
-  <si>
-    <t>University of Massachusetts-Boston</t>
-  </si>
-  <si>
-    <t>University of Massachusetts-Lowell</t>
-  </si>
-  <si>
-    <t>University of Michigan</t>
-  </si>
-  <si>
-    <t>U MN Twin Cities</t>
-  </si>
-  <si>
-    <t>University of Minnesota-Twin Cities</t>
-  </si>
-  <si>
-    <t>U MO</t>
-  </si>
-  <si>
-    <t>University of Missouri-Columbia</t>
-  </si>
-  <si>
-    <t>U NE Omaha</t>
-  </si>
-  <si>
-    <t>University of Nebraska Medical Center</t>
-  </si>
-  <si>
-    <t>U NE Lincoln</t>
-  </si>
-  <si>
-    <t>University of Nebraska-Lincoln</t>
-  </si>
-  <si>
-    <t>U NV</t>
-  </si>
-  <si>
-    <t>University of Nevada-Las Vegas</t>
-  </si>
-  <si>
-    <t>University of Nevada-Reno</t>
-  </si>
-  <si>
-    <t>University of New Hampshire</t>
-  </si>
-  <si>
-    <t>University of New Mexico</t>
-  </si>
-  <si>
-    <t>U OK Norman</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
-    <t>University of Pittsburgh</t>
-  </si>
-  <si>
-    <t>University of South Carolina</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>University of Washington</t>
-  </si>
-  <si>
-    <t>U WI Madison</t>
-  </si>
-  <si>
-    <t>University of Wisconsin-Madison</t>
-  </si>
-  <si>
-    <t>U WI Milwaukee</t>
-  </si>
-  <si>
-    <t>University of Wisconsin-Milwaukee</t>
-  </si>
-  <si>
-    <t>Cornell U</t>
-  </si>
-  <si>
-    <t>Weill Medical College of Cornell University</t>
+    <t>CUNY City College</t>
+  </si>
+  <si>
+    <t>CUNY Hunter College</t>
+  </si>
+  <si>
+    <t>East Texas A&amp;amp;M</t>
+  </si>
+  <si>
+    <t>Embry Riddle Aero U</t>
+  </si>
+  <si>
+    <t>Embry-Riddle Aeronautical University-Daytona Beach</t>
+  </si>
+  <si>
+    <t>IUP</t>
+  </si>
+  <si>
+    <t>Indiana University of Pennsylvania-Main Campus</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Louisiana State University Health Sciences Center-New Orleans</t>
+  </si>
+  <si>
+    <t>Miami U</t>
+  </si>
+  <si>
+    <t>Miami University-Oxford</t>
+  </si>
+  <si>
+    <t>Oklahoma State University Center for Health Sciences</t>
+  </si>
+  <si>
+    <t>Sthrn U A&amp;M Coll</t>
+  </si>
+  <si>
+    <t>Southern University and A &amp; M College</t>
+  </si>
+  <si>
+    <t>Columbia U</t>
+  </si>
+  <si>
+    <t>Teachers College at Columbia University</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University-Corpus Christi</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M University-Kingsville</t>
+  </si>
+  <si>
+    <t>TX Tech U</t>
+  </si>
+  <si>
+    <t>Texas Tech University Health Sciences Center</t>
+  </si>
+  <si>
+    <t>New Sch U</t>
+  </si>
+  <si>
+    <t>The New School</t>
+  </si>
+  <si>
+    <t>The University of Texas Medical Branch at Galveston</t>
+  </si>
+  <si>
+    <t>U W FL</t>
+  </si>
+  <si>
+    <t>The University of West Florida</t>
+  </si>
+  <si>
+    <t>CUNY Graduate School and University Center</t>
+  </si>
+  <si>
+    <t>U IN Bloomington</t>
+  </si>
+  <si>
+    <t>Indiana University-Bloomington</t>
+  </si>
+  <si>
+    <t>U IN</t>
+  </si>
+  <si>
+    <t>Indiana University-Purdue University-Indianapolis</t>
+  </si>
+  <si>
+    <t>SUNY</t>
+  </si>
+  <si>
+    <t>Albany College of Pharmacy and Health Sciences</t>
+  </si>
+  <si>
+    <t>Albany Med Coll</t>
+  </si>
+  <si>
+    <t>Albany Medical College</t>
+  </si>
+  <si>
+    <t>CalState</t>
+  </si>
+  <si>
+    <t>California Polytechnic State University-San Luis Obispo</t>
+  </si>
+  <si>
+    <t>Bowling Green St U</t>
+  </si>
+  <si>
+    <t>Bowling Green State University-Main Campus</t>
+  </si>
+  <si>
+    <t>California State Polytechnic University-Pomona</t>
+  </si>
+  <si>
+    <t>California State University-Fresno</t>
+  </si>
+  <si>
+    <t>California State University-Fullerton</t>
+  </si>
+  <si>
+    <t>California State University-Long Beach</t>
+  </si>
+  <si>
+    <t>California State University-Los Angeles</t>
+  </si>
+  <si>
+    <t>California State University-Sacramento</t>
+  </si>
+  <si>
+    <t>Seton Hall U</t>
+  </si>
+  <si>
+    <t>Seton Hall University</t>
+  </si>
+  <si>
+    <t>U N TX</t>
+  </si>
+  <si>
+    <t>Texas Woman's University</t>
+  </si>
+  <si>
+    <t>U Akron</t>
+  </si>
+  <si>
+    <t>University of Akron Main Campus</t>
+  </si>
+  <si>
+    <t>University of Massachusetts-Dartmouth</t>
+  </si>
+  <si>
+    <t>University of Missouri-St Louis</t>
+  </si>
+  <si>
+    <t>U PR</t>
+  </si>
+  <si>
+    <t>University of Puerto Rico-Mayaguez</t>
+  </si>
+  <si>
+    <t>University of Puerto Rico-Rio Piedras</t>
+  </si>
+  <si>
+    <t>Upstate Medical University</t>
+  </si>
+  <si>
+    <t>Wright St U</t>
+  </si>
+  <si>
+    <t>Wright State University-Main Campus</t>
+  </si>
+  <si>
+    <t>California State Polytechnic University-Humboldt</t>
+  </si>
+  <si>
+    <t>California State University-Bakersfield</t>
+  </si>
+  <si>
+    <t>California State University-Channel Islands</t>
+  </si>
+  <si>
+    <t>California State University-Dominguez Hills</t>
+  </si>
+  <si>
+    <t>California State University-East Bay</t>
+  </si>
+  <si>
+    <t>California State University-Monterey Bay</t>
+  </si>
+  <si>
+    <t>California State University-Northridge</t>
+  </si>
+  <si>
+    <t>California State University-San Bernardino</t>
+  </si>
+  <si>
+    <t>California State University-San Marcos</t>
+  </si>
+  <si>
+    <t>CDUMS</t>
+  </si>
+  <si>
+    <t>Charles R Drew University of Medicine and Science</t>
+  </si>
+  <si>
+    <t>Citadel Mil Coll</t>
+  </si>
+  <si>
+    <t>Citadel Military College of South Carolina</t>
+  </si>
+  <si>
+    <t>CUNY Bernard M Baruch College</t>
+  </si>
+  <si>
+    <t>CUNY Brooklyn College</t>
+  </si>
+  <si>
+    <t>CUNY John Jay College of Criminal Justice</t>
+  </si>
+  <si>
+    <t>CUNY Lehman College</t>
+  </si>
+  <si>
+    <t>CUNY New York City College of Technology</t>
+  </si>
+  <si>
+    <t>CUNY Queens College</t>
+  </si>
+  <si>
+    <t>Dine Coll</t>
+  </si>
+  <si>
+    <t>Dine College</t>
+  </si>
+  <si>
+    <t>E Stroudsburg U</t>
+  </si>
+  <si>
+    <t>East Stroudsburg University of Pennsylvania</t>
+  </si>
+  <si>
+    <t>Fort Lewis Coll</t>
+  </si>
+  <si>
+    <t>Fort Lewis College</t>
+  </si>
+  <si>
+    <t>Langston U</t>
+  </si>
+  <si>
+    <t>Langston University</t>
+  </si>
+  <si>
+    <t>Louisiana State University Health Sciences Center-Shreveport</t>
+  </si>
+  <si>
+    <t>Meharry Med Coll</t>
+  </si>
+  <si>
+    <t>Meharry Medical College</t>
+  </si>
+  <si>
+    <t>MGH</t>
+  </si>
+  <si>
+    <t>MGH Institute of Health Professions</t>
+  </si>
+  <si>
+    <t>MN St U</t>
+  </si>
+  <si>
+    <t>Minnesota State University-Mankato</t>
+  </si>
+  <si>
+    <t>Missouri St U</t>
+  </si>
+  <si>
+    <t>Missouri State University-Springfield</t>
+  </si>
+  <si>
+    <t>MSM</t>
+  </si>
+  <si>
+    <t>Morehouse School of Medicine</t>
+  </si>
+  <si>
+    <t>NW Ind Coll</t>
+  </si>
+  <si>
+    <t>Northwest Indian College</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University-Penn State Erie-Behrend College</t>
+  </si>
+  <si>
+    <t>Pennsylvania State University-Penn State Harrisburg</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>Rhode Island College</t>
+  </si>
+  <si>
+    <t>Saginaw Vall St U</t>
+  </si>
+  <si>
+    <t>Saginaw Valley State University</t>
+  </si>
+  <si>
+    <t>Spelman Coll</t>
+  </si>
+  <si>
+    <t>Spelman College</t>
+  </si>
+  <si>
+    <t>SUNY Buffalo State University</t>
+  </si>
+  <si>
+    <t>SUNY College of Agriculture and Technology at Cobleskill</t>
+  </si>
+  <si>
+    <t>SUNY College of Optometry</t>
+  </si>
+  <si>
+    <t>SUNY Downstate Health Sciences University</t>
+  </si>
+  <si>
+    <t>TX A&amp;M Int U</t>
+  </si>
+  <si>
+    <t>Texas A &amp; M International University</t>
+  </si>
+  <si>
+    <t>Texas Tech University Health Sciences Center-El Paso</t>
+  </si>
+  <si>
+    <t>U TN</t>
+  </si>
+  <si>
+    <t>The University of Tennessee-Chattanooga</t>
+  </si>
+  <si>
+    <t>U TX Health</t>
+  </si>
+  <si>
+    <t>The University of Texas MD Anderson Cancer Center</t>
+  </si>
+  <si>
+    <t>Tougaloo Coll</t>
+  </si>
+  <si>
+    <t>Tougaloo College</t>
+  </si>
+  <si>
+    <t>Touro Coll</t>
+  </si>
+  <si>
+    <t>Touro University California</t>
+  </si>
+  <si>
+    <t>U Cen OK</t>
+  </si>
+  <si>
+    <t>University of Central Oklahoma</t>
+  </si>
+  <si>
+    <t>UMD</t>
+  </si>
+  <si>
+    <t>University of Maryland Eastern Shore</t>
+  </si>
+  <si>
+    <t>U MN Twin Duluth</t>
+  </si>
+  <si>
+    <t>University of Minnesota-Duluth</t>
+  </si>
+  <si>
+    <t>University of Puerto Rico-Medical Sciences</t>
+  </si>
+  <si>
+    <t>U WI Green Bay</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Green Bay</t>
+  </si>
+  <si>
+    <t>U WI La Crosse</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-La Crosse</t>
+  </si>
+  <si>
+    <t>U WI River Falls</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-River Falls</t>
+  </si>
+  <si>
+    <t>U WI Stevens Point</t>
+  </si>
+  <si>
+    <t>University of Wisconsin-Stevens Point</t>
+  </si>
+  <si>
+    <t>W MI U</t>
+  </si>
+  <si>
+    <t>Western Michigan University Homer Stryker M.D. School of Medicine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -274,6 +700,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -289,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -302,6 +733,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,12 +1007,12 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -595,91 +1032,94 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -687,17 +1127,14 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -705,52 +1142,52 @@
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="4" t="s">
         <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -758,50 +1195,53 @@
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>61</v>
@@ -809,9 +1249,6 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -824,12 +1261,12 @@
       <c r="A44" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -852,123 +1289,770 @@
       <c r="A49" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -1822,8 +2906,6 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/codeV3/exceptions.xlsx
+++ b/codeV3/exceptions.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="+fcNRvIxeHOgamfcs+ySIO/cVVEFRnvhJR80/ooA2hI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="M3lGfT/OX5/wwNqXZ/PE2Ww28lwVJK+Z3oopApPRZPA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="175">
   <si>
     <t>replacement</t>
   </si>
@@ -63,73 +63,64 @@
     <t>Southern Illinois University</t>
   </si>
   <si>
-    <t>TX A&amp;M</t>
-  </si>
-  <si>
-    <t>Texas A &amp; M University</t>
-  </si>
-  <si>
     <t>The University of Tennessee</t>
   </si>
   <si>
-    <t>U TX Austin</t>
-  </si>
-  <si>
-    <t>The University of Texas</t>
-  </si>
-  <si>
-    <t>UCB</t>
+    <t>University of California,Berkeley</t>
   </si>
   <si>
     <t>University of California-Berkeley</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>University of California,Davis</t>
   </si>
   <si>
     <t>University of California-Davis</t>
   </si>
   <si>
-    <t>UCI</t>
+    <t>University of California,Irvine</t>
   </si>
   <si>
     <t>University of California-Irvine</t>
   </si>
   <si>
-    <t>UCLA</t>
+    <t>University of California,Los Angeles</t>
   </si>
   <si>
     <t>University of California-Los Angeles</t>
   </si>
   <si>
-    <t>UCM</t>
+    <t>University of California,Merced</t>
   </si>
   <si>
     <t>University of California-Merced</t>
   </si>
   <si>
-    <t>UCR</t>
+    <t>University of California,Riverside</t>
   </si>
   <si>
     <t>University of California-Riverside</t>
   </si>
   <si>
-    <t>UCSD</t>
+    <t>University of California,San Diego</t>
   </si>
   <si>
     <t>University of California-San Diego</t>
   </si>
   <si>
-    <t>UCSF</t>
+    <t>University of California,San Francisco</t>
   </si>
   <si>
     <t>University of California-San Francisco</t>
   </si>
   <si>
+    <t>University of California,Santa Barbara</t>
+  </si>
+  <si>
     <t>University of California-Santa Barbara</t>
   </si>
   <si>
-    <t>UCSC</t>
+    <t>University of California,Santa Cruz</t>
   </si>
   <si>
     <t>University of California-Santa Cruz</t>
@@ -138,69 +129,72 @@
     <t>University of Colorado Denver</t>
   </si>
   <si>
-    <t>UIUC</t>
+    <t>University of Illinois Urbana Champaign</t>
   </si>
   <si>
     <t>University of Illinois Urbana-Champaign</t>
   </si>
   <si>
-    <t>UMBC</t>
+    <t>University of Maryland Baltimore County</t>
   </si>
   <si>
     <t>University of Maryland-Baltimore County</t>
   </si>
   <si>
-    <t>UMCP</t>
+    <t>University of Maryland College Park</t>
   </si>
   <si>
     <t>University of Maryland-College Park</t>
   </si>
   <si>
-    <t>UMass</t>
+    <t>University of Massachusetts,Amherst</t>
   </si>
   <si>
     <t>University of Massachusetts-Amherst</t>
   </si>
   <si>
+    <t>University of Massachusetts,Boston</t>
+  </si>
+  <si>
     <t>University of Massachusetts-Boston</t>
   </si>
   <si>
+    <t>University of Massachusetts,Lowell</t>
+  </si>
+  <si>
     <t>University of Massachusetts-Lowell</t>
   </si>
   <si>
     <t>University of Michigan</t>
   </si>
   <si>
-    <t>U MN Twin Cities</t>
+    <t>University of Minnesota,Twin Cities</t>
   </si>
   <si>
     <t>University of Minnesota-Twin Cities</t>
   </si>
   <si>
-    <t>U MO</t>
+    <t>University of Missouri, Columbia</t>
   </si>
   <si>
     <t>University of Missouri-Columbia</t>
   </si>
   <si>
-    <t>U NE Omaha</t>
-  </si>
-  <si>
-    <t>University of Nebraska Medical Center</t>
-  </si>
-  <si>
-    <t>U NE Lincoln</t>
+    <t>University of Nebraska Lincoln</t>
   </si>
   <si>
     <t>University of Nebraska-Lincoln</t>
   </si>
   <si>
-    <t>U NV</t>
+    <t>University of Nevada Las Vegas</t>
   </si>
   <si>
     <t>University of Nevada-Las Vegas</t>
   </si>
   <si>
+    <t>University of Nevada Reno</t>
+  </si>
+  <si>
     <t>University of Nevada-Reno</t>
   </si>
   <si>
@@ -210,12 +204,6 @@
     <t>University of New Mexico</t>
   </si>
   <si>
-    <t>U OK Norman</t>
-  </si>
-  <si>
-    <t>University of Oklahoma</t>
-  </si>
-  <si>
     <t>University of Pittsburgh</t>
   </si>
   <si>
@@ -228,22 +216,19 @@
     <t>University of Washington</t>
   </si>
   <si>
-    <t>U WI Madison</t>
+    <t>University of Wisconsin Madison</t>
   </si>
   <si>
     <t>University of Wisconsin-Madison</t>
   </si>
   <si>
-    <t>U WI Milwaukee</t>
+    <t>University of Wisconsin Milwaukee</t>
   </si>
   <si>
     <t>University of Wisconsin-Milwaukee</t>
   </si>
   <si>
-    <t>Cornell U</t>
-  </si>
-  <si>
-    <t>Weill Medical College of Cornell University</t>
+    <t>University of Oklahoma Health Sciences Center</t>
   </si>
   <si>
     <t>University of Oklahoma-Health Sciences Center</t>
@@ -255,60 +240,39 @@
     <t>Air Force Institute of Technology-Graduate School of Engineering &amp; Management</t>
   </si>
   <si>
-    <t>CUNY</t>
-  </si>
-  <si>
-    <t>CUNY City College</t>
-  </si>
-  <si>
-    <t>CUNY Hunter College</t>
-  </si>
-  <si>
-    <t>East Texas A&amp;amp;M</t>
-  </si>
-  <si>
-    <t>Embry Riddle Aero U</t>
+    <t>Embry Riddle Aeronautical University Daytona Beach</t>
   </si>
   <si>
     <t>Embry-Riddle Aeronautical University-Daytona Beach</t>
   </si>
   <si>
-    <t>IUP</t>
+    <t>Indiana University of Pennsylvania Main Campus</t>
   </si>
   <si>
     <t>Indiana University of Pennsylvania-Main Campus</t>
   </si>
   <si>
-    <t>LSU</t>
+    <t>Louisiana State University Health Sciences Center New Orleans</t>
   </si>
   <si>
     <t>Louisiana State University Health Sciences Center-New Orleans</t>
   </si>
   <si>
-    <t>Miami U</t>
+    <t>Miami University Oxford</t>
   </si>
   <si>
     <t>Miami University-Oxford</t>
   </si>
   <si>
-    <t>Oklahoma State University Center for Health Sciences</t>
-  </si>
-  <si>
-    <t>Sthrn U A&amp;M Coll</t>
-  </si>
-  <si>
-    <t>Southern University and A &amp; M College</t>
-  </si>
-  <si>
-    <t>Columbia U</t>
-  </si>
-  <si>
-    <t>Teachers College at Columbia University</t>
+    <t>Texas A &amp; M University Corpus Christi</t>
   </si>
   <si>
     <t>Texas A &amp; M University-Corpus Christi</t>
   </si>
   <si>
+    <t>Texas A &amp; M University Kingsville</t>
+  </si>
+  <si>
     <t>Texas A &amp; M University-Kingsville</t>
   </si>
   <si>
@@ -324,352 +288,256 @@
     <t>The New School</t>
   </si>
   <si>
-    <t>The University of Texas Medical Branch at Galveston</t>
-  </si>
-  <si>
-    <t>U W FL</t>
-  </si>
-  <si>
-    <t>The University of West Florida</t>
-  </si>
-  <si>
-    <t>CUNY Graduate School and University Center</t>
-  </si>
-  <si>
-    <t>U IN Bloomington</t>
+    <t>Indiana University Bloomington</t>
   </si>
   <si>
     <t>Indiana University-Bloomington</t>
   </si>
   <si>
-    <t>U IN</t>
+    <t>Indiana University Purdue University Indianapolis</t>
   </si>
   <si>
     <t>Indiana University-Purdue University-Indianapolis</t>
   </si>
   <si>
-    <t>SUNY</t>
-  </si>
-  <si>
-    <t>Albany College of Pharmacy and Health Sciences</t>
-  </si>
-  <si>
-    <t>Albany Med Coll</t>
-  </si>
-  <si>
-    <t>Albany Medical College</t>
-  </si>
-  <si>
-    <t>CalState</t>
+    <t>California Polytechnic State University San Luis Obispo</t>
   </si>
   <si>
     <t>California Polytechnic State University-San Luis Obispo</t>
   </si>
   <si>
-    <t>Bowling Green St U</t>
+    <t>Bowling Green State University Main Campus</t>
   </si>
   <si>
     <t>Bowling Green State University-Main Campus</t>
   </si>
   <si>
+    <t>California State Polytechnic University Pomona</t>
+  </si>
+  <si>
     <t>California State Polytechnic University-Pomona</t>
   </si>
   <si>
+    <t>California State University Fresno</t>
+  </si>
+  <si>
     <t>California State University-Fresno</t>
   </si>
   <si>
+    <t>California State University Fullerton</t>
+  </si>
+  <si>
     <t>California State University-Fullerton</t>
   </si>
   <si>
+    <t>California State University Long Beach</t>
+  </si>
+  <si>
     <t>California State University-Long Beach</t>
   </si>
   <si>
+    <t>California State University Los Angeles</t>
+  </si>
+  <si>
     <t>California State University-Los Angeles</t>
   </si>
   <si>
+    <t>California State University Sacramento</t>
+  </si>
+  <si>
     <t>California State University-Sacramento</t>
   </si>
   <si>
-    <t>Seton Hall U</t>
-  </si>
-  <si>
-    <t>Seton Hall University</t>
-  </si>
-  <si>
-    <t>U N TX</t>
-  </si>
-  <si>
-    <t>Texas Woman's University</t>
-  </si>
-  <si>
-    <t>U Akron</t>
-  </si>
-  <si>
-    <t>University of Akron Main Campus</t>
+    <t>University of Massachusetts Dartmouth</t>
   </si>
   <si>
     <t>University of Massachusetts-Dartmouth</t>
   </si>
   <si>
+    <t>University of Missouri St Louis</t>
+  </si>
+  <si>
     <t>University of Missouri-St Louis</t>
   </si>
   <si>
-    <t>U PR</t>
+    <t>University of Puerto Rico Mayaguez</t>
   </si>
   <si>
     <t>University of Puerto Rico-Mayaguez</t>
   </si>
   <si>
+    <t>University of Puerto Rico Rio Piedras</t>
+  </si>
+  <si>
     <t>University of Puerto Rico-Rio Piedras</t>
   </si>
   <si>
-    <t>Upstate Medical University</t>
-  </si>
-  <si>
-    <t>Wright St U</t>
+    <t>Wright State University Main Campus</t>
   </si>
   <si>
     <t>Wright State University-Main Campus</t>
   </si>
   <si>
+    <t>California State Polytechnic University Humboldt</t>
+  </si>
+  <si>
     <t>California State Polytechnic University-Humboldt</t>
   </si>
   <si>
+    <t>California State University Bakersfield</t>
+  </si>
+  <si>
     <t>California State University-Bakersfield</t>
   </si>
   <si>
+    <t>California State University Channel Islands</t>
+  </si>
+  <si>
     <t>California State University-Channel Islands</t>
   </si>
   <si>
+    <t>California State University Dominguez Hills</t>
+  </si>
+  <si>
     <t>California State University-Dominguez Hills</t>
   </si>
   <si>
+    <t>California State University East Bay</t>
+  </si>
+  <si>
     <t>California State University-East Bay</t>
   </si>
   <si>
+    <t>California State University Monterey Bay</t>
+  </si>
+  <si>
     <t>California State University-Monterey Bay</t>
   </si>
   <si>
+    <t>California State University Northridge</t>
+  </si>
+  <si>
     <t>California State University-Northridge</t>
   </si>
   <si>
+    <t>California State University San Bernardino</t>
+  </si>
+  <si>
     <t>California State University-San Bernardino</t>
   </si>
   <si>
+    <t>California State University San Marcos</t>
+  </si>
+  <si>
     <t>California State University-San Marcos</t>
   </si>
   <si>
-    <t>CDUMS</t>
-  </si>
-  <si>
-    <t>Charles R Drew University of Medicine and Science</t>
-  </si>
-  <si>
-    <t>Citadel Mil Coll</t>
-  </si>
-  <si>
-    <t>Citadel Military College of South Carolina</t>
+    <t>Baruch College</t>
   </si>
   <si>
     <t>CUNY Bernard M Baruch College</t>
   </si>
   <si>
+    <t>Brooklyn College</t>
+  </si>
+  <si>
     <t>CUNY Brooklyn College</t>
   </si>
   <si>
+    <t>John Jay College</t>
+  </si>
+  <si>
     <t>CUNY John Jay College of Criminal Justice</t>
   </si>
   <si>
+    <t>Lehman College</t>
+  </si>
+  <si>
     <t>CUNY Lehman College</t>
   </si>
   <si>
+    <t>New York City College of Technology</t>
+  </si>
+  <si>
     <t>CUNY New York City College of Technology</t>
   </si>
   <si>
+    <t>Queens College</t>
+  </si>
+  <si>
     <t>CUNY Queens College</t>
   </si>
   <si>
-    <t>Dine Coll</t>
-  </si>
-  <si>
-    <t>Dine College</t>
-  </si>
-  <si>
-    <t>E Stroudsburg U</t>
-  </si>
-  <si>
-    <t>East Stroudsburg University of Pennsylvania</t>
-  </si>
-  <si>
-    <t>Fort Lewis Coll</t>
-  </si>
-  <si>
-    <t>Fort Lewis College</t>
-  </si>
-  <si>
-    <t>Langston U</t>
-  </si>
-  <si>
-    <t>Langston University</t>
-  </si>
-  <si>
-    <t>Louisiana State University Health Sciences Center-Shreveport</t>
-  </si>
-  <si>
-    <t>Meharry Med Coll</t>
-  </si>
-  <si>
-    <t>Meharry Medical College</t>
-  </si>
-  <si>
-    <t>MGH</t>
-  </si>
-  <si>
-    <t>MGH Institute of Health Professions</t>
-  </si>
-  <si>
-    <t>MN St U</t>
+    <t>Minnesota State University Mankato</t>
   </si>
   <si>
     <t>Minnesota State University-Mankato</t>
   </si>
   <si>
-    <t>Missouri St U</t>
+    <t>Missouri State University Springfield</t>
   </si>
   <si>
     <t>Missouri State University-Springfield</t>
   </si>
   <si>
-    <t>MSM</t>
-  </si>
-  <si>
-    <t>Morehouse School of Medicine</t>
-  </si>
-  <si>
-    <t>NW Ind Coll</t>
-  </si>
-  <si>
-    <t>Northwest Indian College</t>
-  </si>
-  <si>
-    <t>PSU</t>
+    <t>Erie Behrend College</t>
   </si>
   <si>
     <t>Pennsylvania State University-Penn State Erie-Behrend College</t>
   </si>
   <si>
+    <t>Penn State Harrisburg</t>
+  </si>
+  <si>
     <t>Pennsylvania State University-Penn State Harrisburg</t>
   </si>
   <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>Rhode Island College</t>
-  </si>
-  <si>
-    <t>Saginaw Vall St U</t>
-  </si>
-  <si>
-    <t>Saginaw Valley State University</t>
-  </si>
-  <si>
-    <t>Spelman Coll</t>
-  </si>
-  <si>
-    <t>Spelman College</t>
+    <t>Buffalo State University</t>
   </si>
   <si>
     <t>SUNY Buffalo State University</t>
   </si>
   <si>
-    <t>SUNY College of Agriculture and Technology at Cobleskill</t>
-  </si>
-  <si>
-    <t>SUNY College of Optometry</t>
-  </si>
-  <si>
-    <t>SUNY Downstate Health Sciences University</t>
-  </si>
-  <si>
-    <t>TX A&amp;M Int U</t>
-  </si>
-  <si>
-    <t>Texas A &amp; M International University</t>
-  </si>
-  <si>
-    <t>Texas Tech University Health Sciences Center-El Paso</t>
-  </si>
-  <si>
-    <t>U TN</t>
+    <t>The University of Tennessee Chattanooga</t>
   </si>
   <si>
     <t>The University of Tennessee-Chattanooga</t>
   </si>
   <si>
-    <t>U TX Health</t>
-  </si>
-  <si>
-    <t>The University of Texas MD Anderson Cancer Center</t>
-  </si>
-  <si>
-    <t>Tougaloo Coll</t>
-  </si>
-  <si>
-    <t>Tougaloo College</t>
-  </si>
-  <si>
-    <t>Touro Coll</t>
-  </si>
-  <si>
-    <t>Touro University California</t>
-  </si>
-  <si>
-    <t>U Cen OK</t>
-  </si>
-  <si>
-    <t>University of Central Oklahoma</t>
-  </si>
-  <si>
-    <t>UMD</t>
-  </si>
-  <si>
-    <t>University of Maryland Eastern Shore</t>
-  </si>
-  <si>
-    <t>U MN Twin Duluth</t>
+    <t>University of Minnesota Duluth</t>
   </si>
   <si>
     <t>University of Minnesota-Duluth</t>
   </si>
   <si>
+    <t>University of Puerto Rico Medical Sciences</t>
+  </si>
+  <si>
     <t>University of Puerto Rico-Medical Sciences</t>
   </si>
   <si>
-    <t>U WI Green Bay</t>
+    <t>University of Wisconsin Green Bay</t>
   </si>
   <si>
     <t>University of Wisconsin-Green Bay</t>
   </si>
   <si>
-    <t>U WI La Crosse</t>
+    <t>University of Wisconsin La Crosse</t>
   </si>
   <si>
     <t>University of Wisconsin-La Crosse</t>
   </si>
   <si>
-    <t>U WI River Falls</t>
+    <t>University of Wisconsin River Falls</t>
   </si>
   <si>
     <t>University of Wisconsin-River Falls</t>
   </si>
   <si>
-    <t>U WI Stevens Point</t>
+    <t>University of Wisconsin Stevens Point</t>
   </si>
   <si>
     <t>University of Wisconsin-Stevens Point</t>
-  </si>
-  <si>
-    <t>W MI U</t>
   </si>
   <si>
     <t>Western Michigan University Homer Stryker M.D. School of Medicine</t>
@@ -735,10 +603,10 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,7 +875,7 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1032,16 +900,15 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1049,15 +916,15 @@
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1119,9 +986,6 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1129,7 +993,7 @@
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1137,922 +1001,603 @@
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="4" t="s">
         <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="2" t="s">
         <v>43</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="4" t="s">
         <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>15</v>
+      <c r="A56" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="4" t="s">
-        <v>15</v>
+      <c r="A64" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4" t="s">
-        <v>15</v>
+      <c r="A65" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>113</v>
+      <c r="A74" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>115</v>
+      <c r="A75" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>117</v>
+      <c r="A76" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>118</v>
+      <c r="A77" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>119</v>
+      <c r="A78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>120</v>
+      <c r="A79" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>140</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>125</v>
+        <v>144</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>146</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>101</v>
+        <v>148</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>134</v>
+        <v>158</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>164</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>139</v>
+      <c r="A94" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>140</v>
+      <c r="A95" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>141</v>
+      <c r="A96" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>142</v>
+      <c r="A97" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="4" t="s">
-        <v>114</v>
+      <c r="A98" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
+    </row>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
     <row r="145" ht="15.75" customHeight="1"/>
     <row r="146" ht="15.75" customHeight="1"/>
     <row r="147" ht="15.75" customHeight="1"/>
@@ -2860,52 +2405,6 @@
     <row r="949" ht="15.75" customHeight="1"/>
     <row r="950" ht="15.75" customHeight="1"/>
     <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
